--- a/output/fit_clients/fit_round_253.xlsx
+++ b/output/fit_clients/fit_round_253.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1586206322.882723</v>
+        <v>1960506288.341475</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1117146264217531</v>
+        <v>0.08195528437784211</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03492320071142142</v>
+        <v>0.02880489959225681</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>793103101.4397151</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2321412203.234615</v>
+        <v>1721960859.325949</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1762602193844159</v>
+        <v>0.1420422189147807</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04132617322964047</v>
+        <v>0.03955715185225321</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1160706191.444628</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4373830691.104357</v>
+        <v>3901001115.846521</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1576601597507101</v>
+        <v>0.1472699964465692</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02517714141415102</v>
+        <v>0.02927301222972686</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>91</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2186915386.215602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4247692819.129789</v>
+        <v>4050236640.807456</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06735635301957507</v>
+        <v>0.08831322381320184</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04584545767640571</v>
+        <v>0.03690967103191198</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2123846396.83763</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2029202557.234345</v>
+        <v>2646311002.744819</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1009627301238035</v>
+        <v>0.1310242578183151</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03793385476200999</v>
+        <v>0.05277292385702741</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>41</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1014601305.044664</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3125824444.711382</v>
+        <v>2940093282.452096</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07247285472536096</v>
+        <v>0.09428362432667466</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04429313286715907</v>
+        <v>0.02988230576078127</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>79</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1562912175.116838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3662010538.634765</v>
+        <v>2947145645.037535</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1766127383272318</v>
+        <v>0.2169521588624052</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02804253556537207</v>
+        <v>0.02418749229637811</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>81</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1831005394.501443</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1514955129.94719</v>
+        <v>1401145024.328625</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1403098013268529</v>
+        <v>0.164555244087335</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03335522825433649</v>
+        <v>0.0321828171017713</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>757477658.872725</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4065294455.878227</v>
+        <v>4911902192.302838</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1371670875755146</v>
+        <v>0.148849406768999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05111999301429036</v>
+        <v>0.04593123871553693</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>106</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2032647254.877647</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2722247158.68145</v>
+        <v>4121351248.078835</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1872051167722721</v>
+        <v>0.1808251217325071</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04391734330989407</v>
+        <v>0.04764325904107955</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>105</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1361123502.90869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3010825164.890933</v>
+        <v>2458548277.53043</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1787886653708529</v>
+        <v>0.1414254854184543</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03596907482051396</v>
+        <v>0.05075173386259843</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>84</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1505412601.418283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4970099322.933527</v>
+        <v>4382661461.081219</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09791278007162524</v>
+        <v>0.06528404667472178</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02903402888693302</v>
+        <v>0.02046537152467289</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2485049667.112584</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3055671937.111518</v>
+        <v>2404122142.070229</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1719923788628593</v>
+        <v>0.1569007991617133</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0352986914317032</v>
+        <v>0.04034690356878824</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1527835998.955189</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1394215002.732939</v>
+        <v>1230081167.060012</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08107970874176694</v>
+        <v>0.08670254652512929</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03645667994898382</v>
+        <v>0.04472518736383958</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>697107562.8768393</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2639289641.904593</v>
+        <v>2863378719.442871</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1039830567425583</v>
+        <v>0.1099503522021659</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03302945371513926</v>
+        <v>0.03358088101129415</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1319644839.313019</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3568839820.525137</v>
+        <v>4145278276.731928</v>
       </c>
       <c r="F17" t="n">
-        <v>0.172899175908843</v>
+        <v>0.1603069876357795</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04705167659050692</v>
+        <v>0.04224020203824969</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>74</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1784419966.157523</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3837989656.926856</v>
+        <v>2414451293.421624</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1609343971552013</v>
+        <v>0.1318166870529988</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0323703459871057</v>
+        <v>0.02212013902904263</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>83</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1918994798.020947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1371201453.168753</v>
+        <v>1220326941.666154</v>
       </c>
       <c r="F19" t="n">
-        <v>0.158442211685195</v>
+        <v>0.1852615288806884</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02080853888082591</v>
+        <v>0.02714410631465983</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>685600846.1550809</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2125674870.142388</v>
+        <v>2485174360.307839</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1009238692212153</v>
+        <v>0.1551375605748918</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03080975846744357</v>
+        <v>0.02924908466091197</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>37</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1062837448.007619</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2336845120.775275</v>
+        <v>1711003640.155487</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09901661219725905</v>
+        <v>0.08342200952850927</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04011425605450844</v>
+        <v>0.03162132671600842</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1168422564.13264</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3135322227.538043</v>
+        <v>2769805878.146617</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1419881218546531</v>
+        <v>0.1445878900177475</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04395359624802665</v>
+        <v>0.03598726849384146</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>69</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1567661167.189902</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1021684715.200141</v>
+        <v>1417556024.062004</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1827618740058668</v>
+        <v>0.1617622386183128</v>
       </c>
       <c r="G23" t="n">
-        <v>0.042167247240662</v>
+        <v>0.05024874785982962</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>510842424.1346542</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3666712111.527533</v>
+        <v>3285446060.499498</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1443152880327617</v>
+        <v>0.1194952546043137</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03575220704047494</v>
+        <v>0.0375971310205512</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>74</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1833356046.168083</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1104646315.179728</v>
+        <v>1139830046.194858</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1223748967421164</v>
+        <v>0.07534357773180622</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02623446746476093</v>
+        <v>0.01882047711780016</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>552323197.482688</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1032401718.568942</v>
+        <v>961441315.4059434</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1050672928209795</v>
+        <v>0.1029756032703765</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03142600143515332</v>
+        <v>0.03049903419812193</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>516200839.2749789</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3591611145.738001</v>
+        <v>3339006822.261309</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1441424134826463</v>
+        <v>0.1150737357465143</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02110324189452534</v>
+        <v>0.0167633056702335</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>57</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1795805603.285164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2695497841.037714</v>
+        <v>2475694689.504561</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1070358371684877</v>
+        <v>0.1519177354774504</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03496490364348184</v>
+        <v>0.04097726206902955</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1347748905.328317</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3652524905.67137</v>
+        <v>4269446627.216546</v>
       </c>
       <c r="F29" t="n">
-        <v>0.130372845353912</v>
+        <v>0.1247661170595968</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03936767174378342</v>
+        <v>0.04312249484061942</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>112</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1826262493.72363</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1489344053.039428</v>
+        <v>1604277347.292782</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1047742742772822</v>
+        <v>0.1320516769333336</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02951098070216776</v>
+        <v>0.03471159591914857</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>744672005.8127007</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1165715642.115475</v>
+        <v>1446238098.285765</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1000864530063166</v>
+        <v>0.0918559410097837</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04849759699591052</v>
+        <v>0.04883772973316974</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>582857780.5850604</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1455005385.753325</v>
+        <v>1591244930.144786</v>
       </c>
       <c r="F32" t="n">
-        <v>0.113322956263032</v>
+        <v>0.07966818836818342</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03773183981523245</v>
+        <v>0.02539702233675384</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>727502751.9089627</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3043416792.920439</v>
+        <v>1909582855.341042</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1261582747295174</v>
+        <v>0.1970202418479485</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04852338038448561</v>
+        <v>0.05496945792090593</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>77</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1521708388.404707</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1146850005.220179</v>
+        <v>1267889955.060452</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08057492940355468</v>
+        <v>0.1025328867493991</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0180692687282722</v>
+        <v>0.01985315841899973</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>573425016.4192234</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1235456067.534109</v>
+        <v>968395559.2493523</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1182501477320025</v>
+        <v>0.09047767103130008</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04096310179016763</v>
+        <v>0.03425114023576241</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>617728000.7039754</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2181693938.792361</v>
+        <v>2863283383.307041</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1168606434743865</v>
+        <v>0.1416174667032953</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01830144027555968</v>
+        <v>0.02750787036466077</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>63</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1090847016.884653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2368160277.739542</v>
+        <v>2380635458.291847</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1061826794332376</v>
+        <v>0.1049585519962117</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02878188109655061</v>
+        <v>0.03451964808030834</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>66</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1184080216.794069</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1519604422.757939</v>
+        <v>1339063087.795368</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08933037038970933</v>
+        <v>0.0943406072693546</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03773011362838595</v>
+        <v>0.03316009353079304</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>759802257.8571337</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1867736090.250902</v>
+        <v>1716603942.053103</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1412274040776194</v>
+        <v>0.1740671832435402</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02410552762523157</v>
+        <v>0.02693621516982454</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>933868059.7255694</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1184317492.049656</v>
+        <v>1182959263.874068</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1537838998663378</v>
+        <v>0.1475573251690299</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0552454683019749</v>
+        <v>0.05814649846967392</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>592158791.2147807</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1987278913.819276</v>
+        <v>2727842431.046487</v>
       </c>
       <c r="F41" t="n">
-        <v>0.110205558812684</v>
+        <v>0.1268360350620727</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03951102722777979</v>
+        <v>0.03223872451282278</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>61</v>
-      </c>
-      <c r="J41" t="n">
-        <v>993639532.4206966</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4047622905.585637</v>
+        <v>3071530630.310023</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1021435791121941</v>
+        <v>0.1064188934867389</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03436328413696688</v>
+        <v>0.04434023273327044</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>87</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2023811485.330678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2190713867.463436</v>
+        <v>2960507266.671048</v>
       </c>
       <c r="F43" t="n">
-        <v>0.18170471689362</v>
+        <v>0.1755249602406959</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01824047537437973</v>
+        <v>0.01964036037577443</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>90</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1095357013.485936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1656592418.415873</v>
+        <v>1860093452.359783</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07605943065090556</v>
+        <v>0.06582954248012964</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03116709235344308</v>
+        <v>0.02789388553689889</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>828296247.0141467</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2363974564.726142</v>
+        <v>2098591572.579637</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1359529623471065</v>
+        <v>0.1715693214099715</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04292561152231578</v>
+        <v>0.03608593550497502</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1181987309.893189</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4309327409.657464</v>
+        <v>4897306798.254156</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1142535826824789</v>
+        <v>0.1608542978281146</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05697254208702073</v>
+        <v>0.05505536206713841</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>90</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2154663692.097124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3641574151.538356</v>
+        <v>4834391420.473703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1875744884541798</v>
+        <v>0.1787651284403201</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05955251286780645</v>
+        <v>0.05014538233052408</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>68</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1820787054.624755</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2947688912.786589</v>
+        <v>2855467605.555834</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1014905376192814</v>
+        <v>0.09821813679110368</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03623395562275109</v>
+        <v>0.03340642545866124</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1473844551.919059</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1682555688.527493</v>
+        <v>1324777068.749366</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1429492790986043</v>
+        <v>0.1446297194399355</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03106988115415737</v>
+        <v>0.04316064589571937</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>841277847.8888106</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3181649980.781111</v>
+        <v>4002946980.905476</v>
       </c>
       <c r="F50" t="n">
-        <v>0.144560726872603</v>
+        <v>0.1152123511345658</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04349504435423016</v>
+        <v>0.03650806437399233</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>86</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1590825037.29271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1120008749.539847</v>
+        <v>1429146106.693172</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1402118550701381</v>
+        <v>0.1833182755682667</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03294119377068593</v>
+        <v>0.03405677895911275</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>560004439.2788036</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5024379722.630101</v>
+        <v>3971775849.135446</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09908601536873426</v>
+        <v>0.1095785561459596</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0503082590813908</v>
+        <v>0.05157214673964664</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>104</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2512189857.494451</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2407399261.681102</v>
+        <v>3367726405.247454</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2011493869903144</v>
+        <v>0.1520188938644638</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03024460266997764</v>
+        <v>0.02729309230609826</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>72</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1203699704.15457</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3657926188.758448</v>
+        <v>4016921273.937743</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1515448572650182</v>
+        <v>0.1235275810280656</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03288245546984765</v>
+        <v>0.04236659270633255</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>83</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1828963131.564239</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4805228394.135447</v>
+        <v>4863347694.994537</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1860896844696959</v>
+        <v>0.1911725196027299</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02163564268109164</v>
+        <v>0.02781462075258983</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2402614207.505663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1652537043.561156</v>
+        <v>1766699714.217432</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1456757969526086</v>
+        <v>0.1111914875950185</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05716437240423614</v>
+        <v>0.03984372347125455</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>826268541.4403095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2889713535.153665</v>
+        <v>4356091623.362816</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1431372874765023</v>
+        <v>0.1455127481856479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02506650019758957</v>
+        <v>0.02017660567878042</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>80</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1444856762.713053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1461048062.469817</v>
+        <v>1316218566.217082</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1984368894869874</v>
+        <v>0.1505295820931196</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02436243432911486</v>
+        <v>0.03726101828543417</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>730524065.9313058</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4460879317.010747</v>
+        <v>4965899592.769547</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09766754412343299</v>
+        <v>0.09708886258324434</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03376635349872631</v>
+        <v>0.04739545185956427</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>70</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2230439612.220335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3447271629.696304</v>
+        <v>2798886198.770636</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1536825519451084</v>
+        <v>0.1986751390690841</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02749266894410548</v>
+        <v>0.02066240009150166</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>80</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1723635932.106941</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3212393478.622057</v>
+        <v>2930322573.862165</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1494280020322738</v>
+        <v>0.1353025010762262</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02847764413306898</v>
+        <v>0.02401336289768525</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>88</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1606196699.743127</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1383291363.333926</v>
+        <v>1730744813.591748</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1332962569478663</v>
+        <v>0.1588338769515555</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03749431068079527</v>
+        <v>0.03734143817497618</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>691645647.2177229</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5132543582.801353</v>
+        <v>5282465402.759768</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06669879184868986</v>
+        <v>0.0972474860251428</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04562892777910173</v>
+        <v>0.03860466644337274</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>72</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2566271803.258665</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3608852146.381804</v>
+        <v>5481033138.682636</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1271352180638421</v>
+        <v>0.1289328983177828</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02410678122793911</v>
+        <v>0.02489007450223333</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>79</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1804426081.530804</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5948415606.819443</v>
+        <v>5518303267.250743</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1433650824535453</v>
+        <v>0.1232226149448858</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01947279315580862</v>
+        <v>0.02365906679813341</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>91</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2974207705.705284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5717029680.461211</v>
+        <v>4750072406.805113</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1482338763205072</v>
+        <v>0.1332266191776149</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03916239147117799</v>
+        <v>0.04129318073801182</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>73</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2858514905.777011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2691061269.009564</v>
+        <v>2680307526.18096</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09245381895666419</v>
+        <v>0.07931650117260437</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04660258924307053</v>
+        <v>0.03376993549789081</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1345530678.94935</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5039257202.305173</v>
+        <v>5197634740.787694</v>
       </c>
       <c r="F68" t="n">
-        <v>0.109768246159479</v>
+        <v>0.1487997403003407</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03492015588903954</v>
+        <v>0.0384405402757679</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>82</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2519628659.911494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1861174781.248177</v>
+        <v>2407261840.240191</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1404300044452588</v>
+        <v>0.1619518645013833</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05232734874733452</v>
+        <v>0.03865533013565774</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>930587377.5993868</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2526955589.780434</v>
+        <v>3085095352.714816</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100156946387364</v>
+        <v>0.06465414484211376</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04502543906537047</v>
+        <v>0.04884870510003762</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>72</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1263477741.156484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5373631856.06966</v>
+        <v>4689574234.932701</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1144542492640237</v>
+        <v>0.1485170946466674</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03138885696516852</v>
+        <v>0.03368909148578291</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>92</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2686816061.613422</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1699166834.019145</v>
+        <v>1932697633.558827</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06801336597074298</v>
+        <v>0.08703408501482816</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03453735464604514</v>
+        <v>0.04953595085434677</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>849583411.8356392</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2986213413.630703</v>
+        <v>3363352725.108126</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1036533245889501</v>
+        <v>0.09652496966043551</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04513480628167194</v>
+        <v>0.0453787846225295</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>97</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1493106704.037026</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3231757313.525602</v>
+        <v>3856621590.640626</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1321131379204962</v>
+        <v>0.1232261576533425</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03216965881020846</v>
+        <v>0.03321920593937841</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>86</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1615878702.083127</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2259410273.065282</v>
+        <v>1684974487.362521</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1563331300235858</v>
+        <v>0.110419385522302</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03490813729352247</v>
+        <v>0.03210141240900983</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1129705076.452324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3974124777.955574</v>
+        <v>4520309328.161565</v>
       </c>
       <c r="F76" t="n">
-        <v>0.10317383764886</v>
+        <v>0.1064778253441654</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02540087789823519</v>
+        <v>0.03228389736270327</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1987062372.619523</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1572425856.095291</v>
+        <v>1869275738.906308</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1682982766968545</v>
+        <v>0.1633871827519834</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02035326999159582</v>
+        <v>0.02243973868254966</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>786212926.3962917</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3864100281.875738</v>
+        <v>3529503976.957167</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1031259395172833</v>
+        <v>0.1088399032167882</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05726323276634567</v>
+        <v>0.0484133343687162</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>88</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1932050116.361356</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1320839473.518961</v>
+        <v>1613750700.542278</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1614607179827078</v>
+        <v>0.1121935551744457</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03409969835192921</v>
+        <v>0.03773428743387947</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>660419739.5939302</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3606532656.595157</v>
+        <v>5211814147.83533</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08418736037301726</v>
+        <v>0.0752521941038188</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03290844404148219</v>
+        <v>0.02733069662621901</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>53</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1803266308.185544</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4588370687.420221</v>
+        <v>3612744581.352423</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1090611858270821</v>
+        <v>0.1115769749528977</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02490964460729051</v>
+        <v>0.02340937045372238</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>56</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2294185328.736336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4215337736.360983</v>
+        <v>4016614381.534759</v>
       </c>
       <c r="F82" t="n">
-        <v>0.188773199377618</v>
+        <v>0.1599722248963452</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02683520661521473</v>
+        <v>0.02706543158689899</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>90</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2107668895.889132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1979798248.439713</v>
+        <v>2011498293.341082</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1275472766975742</v>
+        <v>0.1509557641314175</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03386333734659385</v>
+        <v>0.03801549862622218</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>989899106.9706391</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1695502273.311245</v>
+        <v>2163405473.816943</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1075211888536241</v>
+        <v>0.07619181028863745</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03392729294131603</v>
+        <v>0.03460557489720877</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>847751186.2525268</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3043119839.397501</v>
+        <v>3317686544.517691</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1769297892555576</v>
+        <v>0.1213063442798678</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0342642919919879</v>
+        <v>0.04469925447672881</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>95</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1521559984.621063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1787305065.228735</v>
+        <v>1874623522.149226</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1179742498109851</v>
+        <v>0.1095995987106292</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01755681091044731</v>
+        <v>0.02735590044213963</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>33</v>
-      </c>
-      <c r="J86" t="n">
-        <v>893652530.6669495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1321007442.291625</v>
+        <v>1251495299.106695</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1830238647182788</v>
+        <v>0.1834813191615329</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03436074549543587</v>
+        <v>0.03581608993981207</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>660503807.7337548</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2763069506.203883</v>
+        <v>3491037056.710135</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1672904989713789</v>
+        <v>0.1105217310222598</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03307573236197017</v>
+        <v>0.02860322549292438</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>99</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1381534760.120536</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3140043416.214822</v>
+        <v>3182492540.386405</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1275993805860124</v>
+        <v>0.1203162326732197</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03187874084088238</v>
+        <v>0.02640412436810982</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>85</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1570021735.937638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2163982916.999198</v>
+        <v>2027631136.029292</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09164543366651021</v>
+        <v>0.1346506779764747</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0340470601164788</v>
+        <v>0.04864905636852457</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1081991558.785474</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1825221062.725152</v>
+        <v>1900265163.614249</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1377568647218796</v>
+        <v>0.1705075774710575</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03758234911735837</v>
+        <v>0.04834437028594932</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>912610526.9104732</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2254193592.749245</v>
+        <v>2264631842.910955</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08141999884076137</v>
+        <v>0.07758931870084414</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04413089337543102</v>
+        <v>0.03237388974166947</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>64</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1127096761.757174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4661519661.285151</v>
+        <v>4365039626.276245</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1063394705558608</v>
+        <v>0.1365030877386607</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04681718976905392</v>
+        <v>0.03529205882988713</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2330759788.493433</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2258448874.5774</v>
+        <v>2092162762.634724</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1426845916804931</v>
+        <v>0.1365161115115298</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03046299265013581</v>
+        <v>0.0308152346801352</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1129224469.284178</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2633340687.313669</v>
+        <v>2970242034.688029</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1154968267635725</v>
+        <v>0.1117921508465651</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0400316932593011</v>
+        <v>0.03516686610499122</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>61</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1316670370.070625</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1528891624.009664</v>
+        <v>1646277340.414395</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09360252771270816</v>
+        <v>0.1327034051236802</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02916060946865417</v>
+        <v>0.04454250750370714</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>764445849.2680327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4106570323.405688</v>
+        <v>4560604274.038171</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1070486966092217</v>
+        <v>0.1233934684806559</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01832269847226623</v>
+        <v>0.0288410077792316</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2053285226.6565</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3768512226.520155</v>
+        <v>2842191352.448151</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1134225840538514</v>
+        <v>0.0911644257353203</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02402979552608329</v>
+        <v>0.03236963670836548</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>67</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1884256150.053281</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3037921807.455873</v>
+        <v>2733998445.013422</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1439356175623425</v>
+        <v>0.1441175465058714</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03546143510443011</v>
+        <v>0.02678836426952142</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>79</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1518960892.465533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3602540925.443436</v>
+        <v>3716689645.685675</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1422394534257196</v>
+        <v>0.1208027966349451</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02069160970837601</v>
+        <v>0.02783324015398756</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1801270501.666754</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2222103767.333412</v>
+        <v>2893594875.835524</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1663054659197062</v>
+        <v>0.161571241702234</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03888865542748596</v>
+        <v>0.03567955884683977</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>102</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1111051869.889621</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_253.xlsx
+++ b/output/fit_clients/fit_round_253.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1960506288.341475</v>
+        <v>1995727392.359751</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08195528437784211</v>
+        <v>0.06924711960805335</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02880489959225681</v>
+        <v>0.04303419787268744</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1721960859.325949</v>
+        <v>2310183395.935621</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1420422189147807</v>
+        <v>0.1463675243279313</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03955715185225321</v>
+        <v>0.05004286402468955</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3901001115.846521</v>
+        <v>4053226329.226956</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1472699964465692</v>
+        <v>0.1462497710328356</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02927301222972686</v>
+        <v>0.03247281494384941</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4050236640.807456</v>
+        <v>2661040400.04369</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08831322381320184</v>
+        <v>0.0858907219358243</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03690967103191198</v>
+        <v>0.0308315768001342</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2646311002.744819</v>
+        <v>2134672644.913191</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1310242578183151</v>
+        <v>0.1161640443471882</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05277292385702741</v>
+        <v>0.04292681673120922</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2940093282.452096</v>
+        <v>2024005124.266209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09428362432667466</v>
+        <v>0.07521182891443356</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02988230576078127</v>
+        <v>0.03401219602403092</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2947145645.037535</v>
+        <v>2435340758.631767</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2169521588624052</v>
+        <v>0.184935375411964</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02418749229637811</v>
+        <v>0.02105435122353869</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1401145024.328625</v>
+        <v>1720711752.741661</v>
       </c>
       <c r="F9" t="n">
-        <v>0.164555244087335</v>
+        <v>0.1684184690524181</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0321828171017713</v>
+        <v>0.02831559955669315</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4911902192.302838</v>
+        <v>4778687978.932389</v>
       </c>
       <c r="F10" t="n">
-        <v>0.148849406768999</v>
+        <v>0.1927658925926594</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04593123871553693</v>
+        <v>0.0452793235930191</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4121351248.078835</v>
+        <v>4212428825.238248</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1808251217325071</v>
+        <v>0.1251058398982918</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04764325904107955</v>
+        <v>0.03279268203531952</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2458548277.53043</v>
+        <v>2884901369.43764</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1414254854184543</v>
+        <v>0.1329236524068506</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05075173386259843</v>
+        <v>0.03322541307556107</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4382661461.081219</v>
+        <v>4827170241.506093</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06528404667472178</v>
+        <v>0.06551847603812341</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02046537152467289</v>
+        <v>0.02624432705831204</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2404122142.070229</v>
+        <v>2943915646.569382</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1569007991617133</v>
+        <v>0.1238281869814872</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04034690356878824</v>
+        <v>0.04308714232836995</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1230081167.060012</v>
+        <v>1605607588.202355</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08670254652512929</v>
+        <v>0.08234221458235272</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04472518736383958</v>
+        <v>0.03333571435772863</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2863378719.442871</v>
+        <v>2119433793.894895</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1099503522021659</v>
+        <v>0.106583671423908</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03358088101129415</v>
+        <v>0.03179962063224739</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4145278276.731928</v>
+        <v>3672297738.568019</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1603069876357795</v>
+        <v>0.1192462616975468</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04224020203824969</v>
+        <v>0.03851731008944867</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2414451293.421624</v>
+        <v>2563398767.775831</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1318166870529988</v>
+        <v>0.1348268779976553</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02212013902904263</v>
+        <v>0.03438064233982804</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1220326941.666154</v>
+        <v>1169660924.532948</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1852615288806884</v>
+        <v>0.1756257605251665</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02714410631465983</v>
+        <v>0.02557318205057976</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2485174360.307839</v>
+        <v>2719734146.472555</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1551375605748918</v>
+        <v>0.119561296000258</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02924908466091197</v>
+        <v>0.02710957205780619</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1711003640.155487</v>
+        <v>1861728361.184354</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08342200952850927</v>
+        <v>0.08614411300459512</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03162132671600842</v>
+        <v>0.04134790438798268</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2769805878.146617</v>
+        <v>3575162813.602192</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1445878900177475</v>
+        <v>0.1148248213918626</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03598726849384146</v>
+        <v>0.03554768925140114</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1417556024.062004</v>
+        <v>1236269448.712698</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1617622386183128</v>
+        <v>0.1217569628322323</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05024874785982962</v>
+        <v>0.04819649359764137</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3285446060.499498</v>
+        <v>2707377345.410819</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1194952546043137</v>
+        <v>0.09980549320881101</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0375971310205512</v>
+        <v>0.0227307558804893</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1139830046.194858</v>
+        <v>1481823534.012329</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07534357773180622</v>
+        <v>0.09908898149986993</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01882047711780016</v>
+        <v>0.02862145675618766</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>961441315.4059434</v>
+        <v>1009544894.722496</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1029756032703765</v>
+        <v>0.09433550352493879</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03049903419812193</v>
+        <v>0.02753162926164643</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3339006822.261309</v>
+        <v>2869751385.85934</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1150737357465143</v>
+        <v>0.1294364808006369</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0167633056702335</v>
+        <v>0.01844528051564234</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2475694689.504561</v>
+        <v>2947817601.560999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1519177354774504</v>
+        <v>0.1275923535547477</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04097726206902955</v>
+        <v>0.03895185171174397</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4269446627.216546</v>
+        <v>4379042423.490694</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1247661170595968</v>
+        <v>0.1017006292857986</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04312249484061942</v>
+        <v>0.03854263729192807</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1604277347.292782</v>
+        <v>2018775266.884549</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1320516769333336</v>
+        <v>0.1259602752501592</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03471159591914857</v>
+        <v>0.03465939678496581</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1446238098.285765</v>
+        <v>1104116717.017737</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0918559410097837</v>
+        <v>0.08597493901125194</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04883772973316974</v>
+        <v>0.03333178186656587</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1591244930.144786</v>
+        <v>1867393372.449799</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07966818836818342</v>
+        <v>0.08169726270806145</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02539702233675384</v>
+        <v>0.03001407170103098</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1909582855.341042</v>
+        <v>2712283811.576286</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1970202418479485</v>
+        <v>0.2066786103634254</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05496945792090593</v>
+        <v>0.05354669005331567</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1267889955.060452</v>
+        <v>1389398663.487265</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1025328867493991</v>
+        <v>0.09605564824483721</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01985315841899973</v>
+        <v>0.02553567865428185</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>968395559.2493523</v>
+        <v>859214243.2633013</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09047767103130008</v>
+        <v>0.09218500005703946</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03425114023576241</v>
+        <v>0.0324957983104419</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2863283383.307041</v>
+        <v>3148274383.445005</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1416174667032953</v>
+        <v>0.1763118588416736</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02750787036466077</v>
+        <v>0.01968262686528963</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2380635458.291847</v>
+        <v>2432964626.208869</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1049585519962117</v>
+        <v>0.1033499892370653</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03451964808030834</v>
+        <v>0.04064670973339738</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1339063087.795368</v>
+        <v>1766826003.677369</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0943406072693546</v>
+        <v>0.1161453163590705</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03316009353079304</v>
+        <v>0.02855007092541844</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1716603942.053103</v>
+        <v>1659315125.789118</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1740671832435402</v>
+        <v>0.1328663477383793</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02693621516982454</v>
+        <v>0.02863211793453485</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1182959263.874068</v>
+        <v>1136219364.493068</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1475573251690299</v>
+        <v>0.1125630386052265</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05814649846967392</v>
+        <v>0.03630680935093787</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2727842431.046487</v>
+        <v>1778213979.133132</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1268360350620727</v>
+        <v>0.1439665715068602</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03223872451282278</v>
+        <v>0.03931573085019089</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3071530630.310023</v>
+        <v>3144866974.937408</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1064188934867389</v>
+        <v>0.08866368577336431</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04434023273327044</v>
+        <v>0.03902196022484622</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2960507266.671048</v>
+        <v>2470724182.073821</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1755249602406959</v>
+        <v>0.1290215682250689</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01964036037577443</v>
+        <v>0.02176984070643517</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1860093452.359783</v>
+        <v>1562090269.885689</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06582954248012964</v>
+        <v>0.06659693478332564</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02789388553689889</v>
+        <v>0.02681962347874627</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2098591572.579637</v>
+        <v>2192884644.107002</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1715693214099715</v>
+        <v>0.1242041021382004</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03608593550497502</v>
+        <v>0.04505182150878448</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4897306798.254156</v>
+        <v>4237377482.652442</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1608542978281146</v>
+        <v>0.1381076140897725</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05505536206713841</v>
+        <v>0.04192751051555599</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4834391420.473703</v>
+        <v>4821960454.477048</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1787651284403201</v>
+        <v>0.194885788757599</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05014538233052408</v>
+        <v>0.04246206040562685</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2855467605.555834</v>
+        <v>3717352433.530389</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09821813679110368</v>
+        <v>0.09512122714706144</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03340642545866124</v>
+        <v>0.02739358769861727</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1324777068.749366</v>
+        <v>1838154446.540891</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1446297194399355</v>
+        <v>0.1456868978110327</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04316064589571937</v>
+        <v>0.0357725723752511</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4002946980.905476</v>
+        <v>2761549788.7085</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1152123511345658</v>
+        <v>0.1372880346695755</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03650806437399233</v>
+        <v>0.03685633179455358</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1429146106.693172</v>
+        <v>1072526081.551023</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1833182755682667</v>
+        <v>0.1579305479808509</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03405677895911275</v>
+        <v>0.03404717045424185</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3971775849.135446</v>
+        <v>4706329501.762469</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1095785561459596</v>
+        <v>0.1012270998283046</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05157214673964664</v>
+        <v>0.04920128943022442</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3367726405.247454</v>
+        <v>2580048006.226357</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1520188938644638</v>
+        <v>0.1999181593352293</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02729309230609826</v>
+        <v>0.02287980340511584</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4016921273.937743</v>
+        <v>4585239092.770569</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1235275810280656</v>
+        <v>0.1323168474940257</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04236659270633255</v>
+        <v>0.03493937645900573</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4863347694.994537</v>
+        <v>4895687819.260581</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1911725196027299</v>
+        <v>0.1370929922077597</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02781462075258983</v>
+        <v>0.0281102771453654</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1766699714.217432</v>
+        <v>1171820086.803837</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1111914875950185</v>
+        <v>0.1281688091991184</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03984372347125455</v>
+        <v>0.03998524782493983</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4356091623.362816</v>
+        <v>3200073453.509121</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1455127481856479</v>
+        <v>0.1251167453936163</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02017660567878042</v>
+        <v>0.02187870047895233</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1316218566.217082</v>
+        <v>1170805790.004137</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1505295820931196</v>
+        <v>0.1284360266936177</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03726101828543417</v>
+        <v>0.03001219530968913</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4965899592.769547</v>
+        <v>3924705868.148946</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09708886258324434</v>
+        <v>0.08166060773548629</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04739545185956427</v>
+        <v>0.03779988337579293</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2798886198.770636</v>
+        <v>3547841451.550912</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1986751390690841</v>
+        <v>0.1285281735828483</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02066240009150166</v>
+        <v>0.028878068553803</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2930322573.862165</v>
+        <v>2841282639.158758</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1353025010762262</v>
+        <v>0.1261432579345165</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02401336289768525</v>
+        <v>0.02799568777700289</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1730744813.591748</v>
+        <v>1852686988.644147</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1588338769515555</v>
+        <v>0.132939541107408</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03734143817497618</v>
+        <v>0.04918542432086258</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5282465402.759768</v>
+        <v>5225097004.223285</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0972474860251428</v>
+        <v>0.07116022997687878</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03860466644337274</v>
+        <v>0.03744732584086038</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5481033138.682636</v>
+        <v>5306917918.305759</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1289328983177828</v>
+        <v>0.142117993582744</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02489007450223333</v>
+        <v>0.03211988975313538</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5518303267.250743</v>
+        <v>4632362027.89449</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1232226149448858</v>
+        <v>0.1493381143219895</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02365906679813341</v>
+        <v>0.02532639394635514</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4750072406.805113</v>
+        <v>5483749481.280898</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1332266191776149</v>
+        <v>0.0983014611400105</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04129318073801182</v>
+        <v>0.05063357455041972</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2680307526.18096</v>
+        <v>2421214196.09345</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07931650117260437</v>
+        <v>0.07357987088995979</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03376993549789081</v>
+        <v>0.03183159456227341</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5197634740.787694</v>
+        <v>3838535119.589241</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1487997403003407</v>
+        <v>0.09907527899127384</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0384405402757679</v>
+        <v>0.04315446216427414</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2407261840.240191</v>
+        <v>2128416308.691165</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1619518645013833</v>
+        <v>0.1432577359608218</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03865533013565774</v>
+        <v>0.04941385210403854</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3085095352.714816</v>
+        <v>2789374933.212059</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06465414484211376</v>
+        <v>0.08966795880176585</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04884870510003762</v>
+        <v>0.04018724436105378</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4689574234.932701</v>
+        <v>4777102578.225519</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1485170946466674</v>
+        <v>0.1193987160378138</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03368909148578291</v>
+        <v>0.02292790678888172</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1932697633.558827</v>
+        <v>1845890568.489182</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08703408501482816</v>
+        <v>0.07033767591247422</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04953595085434677</v>
+        <v>0.04178614668200337</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3363352725.108126</v>
+        <v>2353323663.954662</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09652496966043551</v>
+        <v>0.1005467767277679</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0453787846225295</v>
+        <v>0.0399887000246674</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3856621590.640626</v>
+        <v>2854602856.691072</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1232261576533425</v>
+        <v>0.1593310217572944</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03321920593937841</v>
+        <v>0.03116570768815316</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1684974487.362521</v>
+        <v>2002493005.213775</v>
       </c>
       <c r="F75" t="n">
-        <v>0.110419385522302</v>
+        <v>0.1274903778712727</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03210141240900983</v>
+        <v>0.02583416728350714</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4520309328.161565</v>
+        <v>3692968129.308554</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1064778253441654</v>
+        <v>0.09451113191052597</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03228389736270327</v>
+        <v>0.03200930351972655</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1869275738.906308</v>
+        <v>1740682463.864091</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1633871827519834</v>
+        <v>0.1216325848104614</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02243973868254966</v>
+        <v>0.0296496208999823</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3529503976.957167</v>
+        <v>3838096683.161347</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1088399032167882</v>
+        <v>0.1140648599465056</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0484133343687162</v>
+        <v>0.03458930703283499</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1613750700.542278</v>
+        <v>1569603302.903582</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1121935551744457</v>
+        <v>0.151566004318415</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03773428743387947</v>
+        <v>0.0308466816664556</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5211814147.83533</v>
+        <v>4289199187.22923</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0752521941038188</v>
+        <v>0.07950870185207023</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02733069662621901</v>
+        <v>0.03369421542664292</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3612744581.352423</v>
+        <v>3263256087.562448</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1115769749528977</v>
+        <v>0.1340425060537025</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02340937045372238</v>
+        <v>0.02263174481987933</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4016614381.534759</v>
+        <v>3578463584.267736</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1599722248963452</v>
+        <v>0.1739365669649096</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02706543158689899</v>
+        <v>0.02471706538126061</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2011498293.341082</v>
+        <v>1938278465.717402</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1509557641314175</v>
+        <v>0.1455620749639557</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03801549862622218</v>
+        <v>0.03629185235992053</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2163405473.816943</v>
+        <v>2107870367.345706</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07619181028863745</v>
+        <v>0.1062985834555477</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03460557489720877</v>
+        <v>0.03623550415401026</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3317686544.517691</v>
+        <v>3053890404.897158</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1213063442798678</v>
+        <v>0.1156198155151646</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04469925447672881</v>
+        <v>0.05053484512182408</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1874623522.149226</v>
+        <v>1915400413.436834</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1095995987106292</v>
+        <v>0.1234413861397613</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02735590044213963</v>
+        <v>0.01789994338607924</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1251495299.106695</v>
+        <v>907770520.3741751</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1834813191615329</v>
+        <v>0.1442099733100101</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03581608993981207</v>
+        <v>0.04446905222704629</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3491037056.710135</v>
+        <v>2285725772.966644</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1105217310222598</v>
+        <v>0.1190230115330395</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02860322549292438</v>
+        <v>0.02992420479832188</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3182492540.386405</v>
+        <v>3484023068.282536</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1203162326732197</v>
+        <v>0.1449191219068466</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02640412436810982</v>
+        <v>0.02960858730863018</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2027631136.029292</v>
+        <v>1460758583.583011</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1346506779764747</v>
+        <v>0.1362969772836272</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04864905636852457</v>
+        <v>0.03454594154543209</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1900265163.614249</v>
+        <v>1660043185.883369</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1705075774710575</v>
+        <v>0.1721337798537333</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04834437028594932</v>
+        <v>0.05472041488201281</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2264631842.910955</v>
+        <v>2515611032.433758</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07758931870084414</v>
+        <v>0.06728933570553453</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03237388974166947</v>
+        <v>0.04528056230486601</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4365039626.276245</v>
+        <v>3632475965.72271</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1365030877386607</v>
+        <v>0.1191136467426005</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03529205882988713</v>
+        <v>0.05021941042535091</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2092162762.634724</v>
+        <v>1848048678.644674</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1365161115115298</v>
+        <v>0.1654139773877876</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0308152346801352</v>
+        <v>0.04060071394309418</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2970242034.688029</v>
+        <v>2692202513.496769</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1117921508465651</v>
+        <v>0.1151975161118359</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03516686610499122</v>
+        <v>0.0523540335250139</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1646277340.414395</v>
+        <v>2092676339.998904</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1327034051236802</v>
+        <v>0.1363093634766225</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04454250750370714</v>
+        <v>0.04632187443616392</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4560604274.038171</v>
+        <v>3879759697.123663</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1233934684806559</v>
+        <v>0.1188409838909256</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0288410077792316</v>
+        <v>0.02765049889388155</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2842191352.448151</v>
+        <v>3947122837.974698</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0911644257353203</v>
+        <v>0.1053865139904498</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03236963670836548</v>
+        <v>0.0277358705946447</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2733998445.013422</v>
+        <v>2570242488.254692</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1441175465058714</v>
+        <v>0.1205261885722352</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02678836426952142</v>
+        <v>0.02509813425487315</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3716689645.685675</v>
+        <v>3817408368.970924</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1208027966349451</v>
+        <v>0.1494020474587877</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02783324015398756</v>
+        <v>0.02636480432253607</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2893594875.835524</v>
+        <v>3582584084.922729</v>
       </c>
       <c r="F101" t="n">
-        <v>0.161571241702234</v>
+        <v>0.1646837870768699</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03567955884683977</v>
+        <v>0.05296126523858603</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_253.xlsx
+++ b/output/fit_clients/fit_round_253.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1995727392.359751</v>
+        <v>1849867863.034733</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06924711960805335</v>
+        <v>0.08144901365952928</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04303419787268744</v>
+        <v>0.03875025198720859</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2310183395.935621</v>
+        <v>1704089765.245537</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1463675243279313</v>
+        <v>0.1761823306213322</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05004286402468955</v>
+        <v>0.0420871165847601</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4053226329.226956</v>
+        <v>5132528311.389954</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1462497710328356</v>
+        <v>0.1301822149583521</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03247281494384941</v>
+        <v>0.02510101499953715</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>136</v>
+      </c>
+      <c r="J4" t="n">
+        <v>253</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2661040400.04369</v>
+        <v>3654573392.135994</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0858907219358243</v>
+        <v>0.109206085699739</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0308315768001342</v>
+        <v>0.03714111171128981</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>103</v>
+      </c>
+      <c r="J5" t="n">
+        <v>253</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2134672644.913191</v>
+        <v>2060003378.720035</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1161640443471882</v>
+        <v>0.1206307068821294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04292681673120922</v>
+        <v>0.03617567377481886</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2024005124.266209</v>
+        <v>3044792624.209473</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07521182891443356</v>
+        <v>0.08031432268028554</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03401219602403092</v>
+        <v>0.03698773550503117</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2435340758.631767</v>
+        <v>3563714231.139255</v>
       </c>
       <c r="F8" t="n">
-        <v>0.184935375411964</v>
+        <v>0.1856471247897541</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02105435122353869</v>
+        <v>0.02524106110794104</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>244</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1720711752.741661</v>
+        <v>2157926132.211644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1684184690524181</v>
+        <v>0.1239541890962281</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02831559955669315</v>
+        <v>0.02315260979183898</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4778687978.932389</v>
+        <v>4915573513.071204</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1927658925926594</v>
+        <v>0.152909635136473</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0452793235930191</v>
+        <v>0.03630141495398141</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>229</v>
+      </c>
+      <c r="J10" t="n">
+        <v>253</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +810,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4212428825.238248</v>
+        <v>3286225996.015619</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1251058398982918</v>
+        <v>0.1712063865884164</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03279268203531952</v>
+        <v>0.04948495589200137</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>103</v>
+      </c>
+      <c r="J11" t="n">
+        <v>249</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +845,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2884901369.43764</v>
+        <v>3250011641.670928</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1329236524068506</v>
+        <v>0.1755874090785468</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03322541307556107</v>
+        <v>0.05292850680806496</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +880,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4827170241.506093</v>
+        <v>4087922219.064058</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06551847603812341</v>
+        <v>0.07348770116583543</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02624432705831204</v>
+        <v>0.02679658603675568</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>128</v>
+      </c>
+      <c r="J13" t="n">
+        <v>253</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +915,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2943915646.569382</v>
+        <v>3767763330.935906</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1238281869814872</v>
+        <v>0.1821902209235914</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04308714232836995</v>
+        <v>0.0300602914586982</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="n">
+        <v>253</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +950,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1605607588.202355</v>
+        <v>1625925749.427321</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08234221458235272</v>
+        <v>0.0783959133815245</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03333571435772863</v>
+        <v>0.04377348653784637</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +985,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2119433793.894895</v>
+        <v>2368085623.520291</v>
       </c>
       <c r="F16" t="n">
-        <v>0.106583671423908</v>
+        <v>0.09803616631933054</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03179962063224739</v>
+        <v>0.03441459063934187</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1020,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3672297738.568019</v>
+        <v>3242802656.944904</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1192462616975468</v>
+        <v>0.1620027244007653</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03851731008944867</v>
+        <v>0.04881781922231272</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>122</v>
+      </c>
+      <c r="J17" t="n">
+        <v>252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>70.30512438508673</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1063,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2563398767.775831</v>
+        <v>2441792613.870344</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1348268779976553</v>
+        <v>0.1316938782284613</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03438064233982804</v>
+        <v>0.02265731053940004</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>63</v>
+      </c>
+      <c r="J18" t="n">
+        <v>250</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1169660924.532948</v>
+        <v>1014131605.619683</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1756257605251665</v>
+        <v>0.1355321979992247</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02557318205057976</v>
+        <v>0.02095101125900197</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2719734146.472555</v>
+        <v>2767856502.522236</v>
       </c>
       <c r="F20" t="n">
-        <v>0.119561296000258</v>
+        <v>0.1289320339051998</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02710957205780619</v>
+        <v>0.01979697123003232</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1168,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1861728361.184354</v>
+        <v>1848292869.036631</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08614411300459512</v>
+        <v>0.09823870062827246</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04134790438798268</v>
+        <v>0.04103209926119416</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1197,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3575162813.602192</v>
+        <v>2836651796.090879</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1148248213918626</v>
+        <v>0.1043012642545405</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03554768925140114</v>
+        <v>0.03638276567718456</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>66</v>
+      </c>
+      <c r="J22" t="n">
+        <v>252</v>
+      </c>
+      <c r="K22" t="n">
+        <v>54.42566099993402</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1236269448.712698</v>
+        <v>1306884495.853501</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1217569628322323</v>
+        <v>0.1188148150691661</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04819649359764137</v>
+        <v>0.05370843707667012</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2707377345.410819</v>
+        <v>4113394271.25841</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09980549320881101</v>
+        <v>0.1306722476127579</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0227307558804893</v>
+        <v>0.02900824243364604</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>74</v>
+      </c>
+      <c r="J24" t="n">
+        <v>253</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1481823534.012329</v>
+        <v>985390929.6721836</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09908898149986993</v>
+        <v>0.08636327063801975</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02862145675618766</v>
+        <v>0.02249874886503673</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1009544894.722496</v>
+        <v>1325807102.599234</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09433550352493879</v>
+        <v>0.1094972551213742</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02753162926164643</v>
+        <v>0.03568952639389025</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1380,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2869751385.85934</v>
+        <v>4220967639.168157</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1294364808006369</v>
+        <v>0.1200659607960405</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01844528051564234</v>
+        <v>0.02418894195720916</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>102</v>
+      </c>
+      <c r="J27" t="n">
+        <v>253</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1409,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2947817601.560999</v>
+        <v>3509547102.857155</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1275923535547477</v>
+        <v>0.1112905282672575</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03895185171174397</v>
+        <v>0.03982830507125133</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>244</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1444,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4379042423.490694</v>
+        <v>3807212866.324295</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1017006292857986</v>
+        <v>0.1301162904478033</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03854263729192807</v>
+        <v>0.03404243262939991</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>241</v>
+      </c>
+      <c r="J29" t="n">
+        <v>253</v>
+      </c>
+      <c r="K29" t="n">
+        <v>107.1815997630243</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2018775266.884549</v>
+        <v>1780301011.900512</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1259602752501592</v>
+        <v>0.1244257939314596</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03465939678496581</v>
+        <v>0.03253814892731088</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1522,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1104116717.017737</v>
+        <v>1006978228.505179</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08597493901125194</v>
+        <v>0.08494317666099453</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03333178186656587</v>
+        <v>0.04210755037602146</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1867393372.449799</v>
+        <v>1615637322.394698</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08169726270806145</v>
+        <v>0.08708771779457365</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03001407170103098</v>
+        <v>0.03808940429297523</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2712283811.576286</v>
+        <v>2755196183.540916</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2066786103634254</v>
+        <v>0.170381255018366</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05354669005331567</v>
+        <v>0.05641075962013632</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1389398663.487265</v>
+        <v>1205478609.367558</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09605564824483721</v>
+        <v>0.07881072152698201</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02553567865428185</v>
+        <v>0.02585999671143779</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>859214243.2633013</v>
+        <v>895168182.555227</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09218500005703946</v>
+        <v>0.09364276876787404</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0324957983104419</v>
+        <v>0.03203549233275542</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3148274383.445005</v>
+        <v>2243886884.143309</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1763118588416736</v>
+        <v>0.1621154323971371</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01968262686528963</v>
+        <v>0.02209281112098143</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2432964626.208869</v>
+        <v>2310268827.830566</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1033499892370653</v>
+        <v>0.1122276692459749</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04064670973339738</v>
+        <v>0.0420207163419941</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1766826003.677369</v>
+        <v>1445866504.591845</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1161453163590705</v>
+        <v>0.09400341114445457</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02855007092541844</v>
+        <v>0.02570482466486398</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1802,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1659315125.789118</v>
+        <v>1733306545.374947</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1328663477383793</v>
+        <v>0.1379197206795411</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02863211793453485</v>
+        <v>0.02839770949579177</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1136219364.493068</v>
+        <v>1247458022.857235</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1125630386052265</v>
+        <v>0.1382623818820093</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03630680935093787</v>
+        <v>0.04312564649246255</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1872,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1778213979.133132</v>
+        <v>2868433909.420016</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1439665715068602</v>
+        <v>0.1573789741170078</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03931573085019089</v>
+        <v>0.04489396540594388</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3144866974.937408</v>
+        <v>3112742314.484192</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08866368577336431</v>
+        <v>0.08765002511140614</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03902196022484622</v>
+        <v>0.03351806910896362</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>105</v>
+      </c>
+      <c r="J42" t="n">
+        <v>252</v>
+      </c>
+      <c r="K42" t="n">
+        <v>75.96363868108661</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1944,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2470724182.073821</v>
+        <v>2752844665.611384</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1290215682250689</v>
+        <v>0.1867648137891805</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02176984070643517</v>
+        <v>0.01926444833201114</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1562090269.885689</v>
+        <v>1526924626.005463</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06659693478332564</v>
+        <v>0.08860584528047062</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02681962347874627</v>
+        <v>0.03308047595764151</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2192884644.107002</v>
+        <v>1999792297.568256</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1242041021382004</v>
+        <v>0.1651184492869886</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04505182150878448</v>
+        <v>0.03915097262673289</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2049,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4237377482.652442</v>
+        <v>3495864570.672754</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1381076140897725</v>
+        <v>0.109133278836083</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04192751051555599</v>
+        <v>0.04424282797854041</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>146</v>
+      </c>
+      <c r="J46" t="n">
+        <v>252</v>
+      </c>
+      <c r="K46" t="n">
+        <v>89.94099191607398</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4821960454.477048</v>
+        <v>3226706479.732522</v>
       </c>
       <c r="F47" t="n">
-        <v>0.194885788757599</v>
+        <v>0.1569059563011135</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04246206040562685</v>
+        <v>0.03801814679351895</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>114</v>
+      </c>
+      <c r="J47" t="n">
+        <v>252</v>
+      </c>
+      <c r="K47" t="n">
+        <v>63.39060689060673</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3717352433.530389</v>
+        <v>3475317010.195754</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09512122714706144</v>
+        <v>0.08444538526680453</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02739358769861727</v>
+        <v>0.02793367233001148</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>126</v>
+      </c>
+      <c r="J48" t="n">
+        <v>252</v>
+      </c>
+      <c r="K48" t="n">
+        <v>93.75500135856794</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1838154446.540891</v>
+        <v>1948797758.877045</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1456868978110327</v>
+        <v>0.1290201868471711</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0357725723752511</v>
+        <v>0.03633667220555521</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2761549788.7085</v>
+        <v>3301497981.733168</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1372880346695755</v>
+        <v>0.153125169801796</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03685633179455358</v>
+        <v>0.04909047327831607</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>82</v>
+      </c>
+      <c r="J50" t="n">
+        <v>251</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1072526081.551023</v>
+        <v>1403270563.150167</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1579305479808509</v>
+        <v>0.1794779143876812</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03404717045424185</v>
+        <v>0.04880812660914002</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4706329501.762469</v>
+        <v>5169969500.791764</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1012270998283046</v>
+        <v>0.1259080293789037</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04920128943022442</v>
+        <v>0.04502556338130299</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>162</v>
+      </c>
+      <c r="J52" t="n">
+        <v>253</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2580048006.226357</v>
+        <v>2735691386.789459</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1999181593352293</v>
+        <v>0.163628711093299</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02287980340511584</v>
+        <v>0.02987556623681172</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>34</v>
+      </c>
+      <c r="J53" t="n">
+        <v>250</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2335,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4585239092.770569</v>
+        <v>3860146196.608513</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1323168474940257</v>
+        <v>0.1625722037054998</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03493937645900573</v>
+        <v>0.03686481053916849</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>133</v>
+      </c>
+      <c r="J54" t="n">
+        <v>253</v>
+      </c>
+      <c r="K54" t="n">
+        <v>103.3228137481658</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4895687819.260581</v>
+        <v>3138398224.390604</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1370929922077597</v>
+        <v>0.2102433450558047</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0281102771453654</v>
+        <v>0.02338152055155881</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>113</v>
+      </c>
+      <c r="J55" t="n">
+        <v>251</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1171820086.803837</v>
+        <v>1530566447.614646</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1281688091991184</v>
+        <v>0.1356359704696502</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03998524782493983</v>
+        <v>0.03665234927386622</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3200073453.509121</v>
+        <v>4040253150.49842</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1251167453936163</v>
+        <v>0.167856323769193</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02187870047895233</v>
+        <v>0.01741014051859309</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>100</v>
+      </c>
+      <c r="J57" t="n">
+        <v>253</v>
+      </c>
+      <c r="K57" t="n">
+        <v>103.5976970172459</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1170805790.004137</v>
+        <v>1608166174.224987</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1284360266936177</v>
+        <v>0.1743361547570388</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03001219530968913</v>
+        <v>0.03948979234976099</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3924705868.148946</v>
+        <v>5381748026.368535</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08166060773548629</v>
+        <v>0.1293042818066809</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03779988337579293</v>
+        <v>0.04598091293166408</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>122</v>
+      </c>
+      <c r="J59" t="n">
+        <v>252</v>
+      </c>
+      <c r="K59" t="n">
+        <v>94.02077812859761</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3547841451.550912</v>
+        <v>3611503367.98266</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1285281735828483</v>
+        <v>0.2047886007533698</v>
       </c>
       <c r="G60" t="n">
-        <v>0.028878068553803</v>
+        <v>0.02698095013034333</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2841282639.158758</v>
+        <v>2945437656.000239</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1261432579345165</v>
+        <v>0.1244281986639594</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02799568777700289</v>
+        <v>0.02060704598401695</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1852686988.644147</v>
+        <v>1798899863.782759</v>
       </c>
       <c r="F62" t="n">
-        <v>0.132939541107408</v>
+        <v>0.16911483972871</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04918542432086258</v>
+        <v>0.03565809475281673</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5225097004.223285</v>
+        <v>5442410198.29504</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07116022997687878</v>
+        <v>0.07412617181886982</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03744732584086038</v>
+        <v>0.03460757150433716</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>123</v>
+      </c>
+      <c r="J63" t="n">
+        <v>253</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5306917918.305759</v>
+        <v>5195383061.559618</v>
       </c>
       <c r="F64" t="n">
-        <v>0.142117993582744</v>
+        <v>0.1163616794866541</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03211988975313538</v>
+        <v>0.0238252893943488</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>124</v>
+      </c>
+      <c r="J64" t="n">
+        <v>253</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2726,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4632362027.89449</v>
+        <v>4190706369.270398</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1493381143219895</v>
+        <v>0.1082441112144574</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02532639394635514</v>
+        <v>0.03201831279925171</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>202</v>
+      </c>
+      <c r="J65" t="n">
+        <v>253</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2761,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5483749481.280898</v>
+        <v>5053185517.141025</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0983014611400105</v>
+        <v>0.1289845201858434</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05063357455041972</v>
+        <v>0.03463335846999636</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>125</v>
+      </c>
+      <c r="J66" t="n">
+        <v>252</v>
+      </c>
+      <c r="K66" t="n">
+        <v>91.77582338123399</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2421214196.09345</v>
+        <v>2601234900.802892</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07357987088995979</v>
+        <v>0.06888581750820366</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03183159456227341</v>
+        <v>0.03186036514330679</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3838535119.589241</v>
+        <v>4100747038.003075</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09907527899127384</v>
+        <v>0.121698909237366</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04315446216427414</v>
+        <v>0.03142837032326793</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>129</v>
+      </c>
+      <c r="J68" t="n">
+        <v>252</v>
+      </c>
+      <c r="K68" t="n">
+        <v>102.1206562397174</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2128416308.691165</v>
+        <v>1719186791.247118</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1432577359608218</v>
+        <v>0.1401904489504703</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04941385210403854</v>
+        <v>0.05152363376861132</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2789374933.212059</v>
+        <v>2786579984.657738</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08966795880176585</v>
+        <v>0.06848214042686679</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04018724436105378</v>
+        <v>0.03847899824908067</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4777102578.225519</v>
+        <v>5031780834.4524</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1193987160378138</v>
+        <v>0.1255846025421414</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02292790678888172</v>
+        <v>0.0237721200593452</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>191</v>
+      </c>
+      <c r="J71" t="n">
+        <v>253</v>
+      </c>
+      <c r="K71" t="n">
+        <v>103.2713351530347</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1845890568.489182</v>
+        <v>1923700205.927965</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07033767591247422</v>
+        <v>0.07052328357251296</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04178614668200337</v>
+        <v>0.04319913637301975</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3006,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2353323663.954662</v>
+        <v>3145306831.251083</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1005467767277679</v>
+        <v>0.09870845053907888</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0399887000246674</v>
+        <v>0.03801212655800959</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="n">
+        <v>86.18826159525244</v>
       </c>
     </row>
     <row r="74">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2854602856.691072</v>
+        <v>2419967132.830252</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1593310217572944</v>
+        <v>0.1605091029007351</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03116570768815316</v>
+        <v>0.03051014842488972</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>72</v>
+      </c>
+      <c r="J74" t="n">
+        <v>251</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2002493005.213775</v>
+        <v>1880806762.587832</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1274903778712727</v>
+        <v>0.1626451169893741</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02583416728350714</v>
+        <v>0.0306470593587978</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3692968129.308554</v>
+        <v>4029841729.936893</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09451113191052597</v>
+        <v>0.1218909522315286</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03200930351972655</v>
+        <v>0.02700975127679524</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>118</v>
+      </c>
+      <c r="J76" t="n">
+        <v>252</v>
+      </c>
+      <c r="K76" t="n">
+        <v>90.72330641078322</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1740682463.864091</v>
+        <v>1568039448.17364</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1216325848104614</v>
+        <v>0.153811148954876</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0296496208999823</v>
+        <v>0.03158216891196954</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3838096683.161347</v>
+        <v>3770399225.838236</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1140648599465056</v>
+        <v>0.1325616779067709</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03458930703283499</v>
+        <v>0.04136000466248086</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>126</v>
+      </c>
+      <c r="J78" t="n">
+        <v>253</v>
+      </c>
+      <c r="K78" t="n">
+        <v>103.4003712552367</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1569603302.903582</v>
+        <v>1762172028.90368</v>
       </c>
       <c r="F79" t="n">
-        <v>0.151566004318415</v>
+        <v>0.1635637556406103</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0308466816664556</v>
+        <v>0.03310829901494362</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4289199187.22923</v>
+        <v>4380154383.560869</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07950870185207023</v>
+        <v>0.09758120421183603</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03369421542664292</v>
+        <v>0.03076821913774491</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>123</v>
+      </c>
+      <c r="J80" t="n">
+        <v>253</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3263256087.562448</v>
+        <v>3678855769.201926</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1340425060537025</v>
+        <v>0.1212458514939355</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02263174481987933</v>
+        <v>0.02917270884138867</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>115</v>
+      </c>
+      <c r="J81" t="n">
+        <v>253</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3578463584.267736</v>
+        <v>3441445819.19816</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1739365669649096</v>
+        <v>0.1959842056601929</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02471706538126061</v>
+        <v>0.02347568447885933</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>192</v>
+      </c>
+      <c r="J82" t="n">
+        <v>252</v>
+      </c>
+      <c r="K82" t="n">
+        <v>88.06682642769603</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1938278465.717402</v>
+        <v>2193011382.995498</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1455620749639557</v>
+        <v>0.09929593893193453</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03629185235992053</v>
+        <v>0.0344078154460695</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2107870367.345706</v>
+        <v>2399114494.841881</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1062985834555477</v>
+        <v>0.08822791932651264</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03623550415401026</v>
+        <v>0.04291689351367956</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3053890404.897158</v>
+        <v>3395032891.279827</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1156198155151646</v>
+        <v>0.1305569767287897</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05053484512182408</v>
+        <v>0.05602286925140638</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1915400413.436834</v>
+        <v>2607224867.321528</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1234413861397613</v>
+        <v>0.1377741379301036</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01789994338607924</v>
+        <v>0.02282371501713994</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>907770520.3741751</v>
+        <v>1238332865.482666</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1442099733100101</v>
+        <v>0.1711979941192817</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04446905222704629</v>
+        <v>0.03423832923371636</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2285725772.966644</v>
+        <v>3179999671.263411</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1190230115330395</v>
+        <v>0.1593885452609942</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02992420479832188</v>
+        <v>0.02687367474001072</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>37</v>
+      </c>
+      <c r="J88" t="n">
+        <v>251</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3484023068.282536</v>
+        <v>2542147601.067798</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1449191219068466</v>
+        <v>0.1507819176514278</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02960858730863018</v>
+        <v>0.02620103288142684</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" t="n">
+        <v>248</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1460758583.583011</v>
+        <v>1377749623.800574</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1362969772836272</v>
+        <v>0.1018041767438592</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03454594154543209</v>
+        <v>0.040917048197742</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1660043185.883369</v>
+        <v>1782106487.837842</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1721337798537333</v>
+        <v>0.123262394790592</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05472041488201281</v>
+        <v>0.05857873641082945</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2515611032.433758</v>
+        <v>2480209973.387682</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06728933570553453</v>
+        <v>0.07113919574640216</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04528056230486601</v>
+        <v>0.04543822800014617</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3632475965.72271</v>
+        <v>4699449267.485777</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1191136467426005</v>
+        <v>0.1154162575533053</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05021941042535091</v>
+        <v>0.04706008669608531</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>112</v>
+      </c>
+      <c r="J93" t="n">
+        <v>252</v>
+      </c>
+      <c r="K93" t="n">
+        <v>98.96958456171265</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1848048678.644674</v>
+        <v>2160961515.592235</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1654139773877876</v>
+        <v>0.1032520531704721</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04060071394309418</v>
+        <v>0.03570235893464981</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2692202513.496769</v>
+        <v>2255795588.020044</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1151975161118359</v>
+        <v>0.1301477592331201</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0523540335250139</v>
+        <v>0.04986376906458613</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2092676339.998904</v>
+        <v>1593971627.517203</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1363093634766225</v>
+        <v>0.1411137085522918</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04632187443616392</v>
+        <v>0.04105650405882635</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3879759697.123663</v>
+        <v>5217643747.719911</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1188409838909256</v>
+        <v>0.1356015041542147</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02765049889388155</v>
+        <v>0.02280342864429382</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>123</v>
+      </c>
+      <c r="J97" t="n">
+        <v>253</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3947122837.974698</v>
+        <v>3912336052.610982</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1053865139904498</v>
+        <v>0.09033959777547339</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0277358705946447</v>
+        <v>0.02358638446008402</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>61</v>
+      </c>
+      <c r="J98" t="n">
+        <v>253</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,22 +3926,31 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2570242488.254692</v>
+        <v>2956722065.422882</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1205261885722352</v>
+        <v>0.1406865750543776</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02509813425487315</v>
+        <v>0.02596197067942133</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>252</v>
+      </c>
+      <c r="K99" t="n">
+        <v>71.83624191370569</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3817408368.970924</v>
+        <v>3724614557.418274</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1494020474587877</v>
+        <v>0.161723418164562</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02636480432253607</v>
+        <v>0.02265039191410092</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>106</v>
+      </c>
+      <c r="J100" t="n">
+        <v>252</v>
+      </c>
+      <c r="K100" t="n">
+        <v>101.0132585828317</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3582584084.922729</v>
+        <v>2199455867.93735</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1646837870768699</v>
+        <v>0.2035310794088261</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05296126523858603</v>
+        <v>0.04500105347519545</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>251</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
